--- a/Raw_SRB_data/Crizotinib_only/Crizonitib_assay_3.xlsx
+++ b/Raw_SRB_data/Crizotinib_only/Crizonitib_assay_3.xlsx
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C18:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
         <v>0.35219999999999996</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:K18" si="0">AVERAGE(C10:C14)</f>
+        <f t="shared" ref="C16:K16" si="0">AVERAGE(C10:C14)</f>
         <v>0.33300000000000002</v>
       </c>
       <c r="D16">
@@ -877,8 +877,8 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="C19" s="2">
-        <f>B19/B18*C18</f>
-        <v>94.548551959114164</v>
+        <f>B19/0.3522*C18</f>
+        <v>94.54855195911415</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -886,8 +886,8 @@
         <v>0.3196</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:C27" si="1">B20/B19*C19</f>
-        <v>90.743895513912562</v>
+        <f t="shared" ref="C20:C27" si="1">B20/0.3522*C19</f>
+        <v>85.79703919969586</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>80.579216354344126</v>
+        <v>69.13458184234436</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>58.546280522430436</v>
+        <v>40.47572622342819</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>24.134014764338442</v>
+        <v>9.768417742735366</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>19.080068143100512</v>
+        <v>1.8638207618166287</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>18.171493469619531</v>
+        <v>0.33868406801892176</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>18.909710391822827</v>
+        <v>6.4044176405622349E-2</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>15.559341283361725</v>
+        <v>9.9648519790690084E-3</v>
       </c>
     </row>
   </sheetData>
